--- a/teaching/traditional_assets/database/data/germany/germany_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.015</v>
+        <v>0.06075</v>
       </c>
       <c r="E2">
-        <v>0.05105</v>
+        <v>0.0621</v>
       </c>
       <c r="F2">
-        <v>0.09369999999999999</v>
+        <v>0.0757</v>
       </c>
       <c r="G2">
-        <v>0.06742458734189788</v>
+        <v>0.06592978313658962</v>
       </c>
       <c r="H2">
-        <v>0.06111100324304247</v>
+        <v>0.06059660638591371</v>
       </c>
       <c r="I2">
-        <v>0.04730277352340872</v>
+        <v>0.06396143944380496</v>
       </c>
       <c r="J2">
-        <v>0.04192536936059245</v>
+        <v>0.05370977824846056</v>
       </c>
       <c r="K2">
-        <v>-3056.447</v>
+        <v>165.8289999999999</v>
       </c>
       <c r="L2">
-        <v>-0.1009264392164974</v>
+        <v>0.005223835601818278</v>
       </c>
       <c r="M2">
-        <v>985.595</v>
+        <v>677.37788</v>
       </c>
       <c r="N2">
-        <v>0.01751603704760153</v>
+        <v>0.01068131782184197</v>
       </c>
       <c r="O2">
-        <v>-0.3224642861466271</v>
+        <v>4.084797472094752</v>
       </c>
       <c r="P2">
-        <v>985.349</v>
+        <v>677.37788</v>
       </c>
       <c r="Q2">
-        <v>0.01751166512494191</v>
+        <v>0.01068131782184197</v>
       </c>
       <c r="R2">
-        <v>-0.3223838005370288</v>
+        <v>4.084797472094752</v>
       </c>
       <c r="S2">
-        <v>0.2459999999999995</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002495954220546974</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>187638.217</v>
+        <v>220868.551</v>
       </c>
       <c r="V2">
-        <v>3.33471452322495</v>
+        <v>3.482793370933094</v>
       </c>
       <c r="W2">
-        <v>0.07043231493780945</v>
+        <v>0.03185476965233772</v>
       </c>
       <c r="X2">
-        <v>0.02766572076456883</v>
+        <v>0.01791599076551088</v>
       </c>
       <c r="Y2">
-        <v>0.04276659417324062</v>
+        <v>0.01393877888682684</v>
       </c>
       <c r="Z2">
-        <v>0.05295900501338378</v>
+        <v>0.04741705452524526</v>
       </c>
       <c r="AA2">
-        <v>2.982465271776905e-05</v>
+        <v>0.002350623474893102</v>
       </c>
       <c r="AB2">
-        <v>0.02737589678567385</v>
+        <v>0.01793579951191141</v>
       </c>
       <c r="AC2">
-        <v>-0.02916017802956605</v>
+        <v>-0.01558517603701831</v>
       </c>
       <c r="AD2">
-        <v>712418.383</v>
+        <v>729490.649</v>
       </c>
       <c r="AE2">
-        <v>6660.550792361273</v>
+        <v>5.377222970773088</v>
       </c>
       <c r="AF2">
-        <v>719078.9337923613</v>
+        <v>729496.0262229708</v>
       </c>
       <c r="AG2">
-        <v>531440.7167923613</v>
+        <v>508627.4752229708</v>
       </c>
       <c r="AH2">
-        <v>0.9274284366624784</v>
+        <v>0.9200201506292605</v>
       </c>
       <c r="AI2">
-        <v>0.8943026331860908</v>
+        <v>0.8906436932333895</v>
       </c>
       <c r="AJ2">
-        <v>0.9042584633662168</v>
+        <v>0.8891396298949388</v>
       </c>
       <c r="AK2">
-        <v>0.862128800868759</v>
+        <v>0.8502667802513123</v>
       </c>
       <c r="AL2">
-        <v>91.854</v>
+        <v>28.999</v>
       </c>
       <c r="AM2">
-        <v>78.739</v>
+        <v>-4.773999999999994</v>
       </c>
       <c r="AN2">
-        <v>248.9271784496961</v>
+        <v>340.8517848106648</v>
       </c>
       <c r="AO2">
-        <v>19.7647135671827</v>
+        <v>69.95037759922755</v>
       </c>
       <c r="AP2">
-        <v>185.6914999685045</v>
+        <v>237.6542906631443</v>
       </c>
       <c r="AQ2">
-        <v>23.05678253470326</v>
+        <v>-424.9038542103063</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DF Deutsche Forfait AG (DB:DFTK)</t>
+          <t>DF Deutsche Forfait AG (XTRA:DFTK)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,25 +728,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0254</v>
+        <v>-0.0645</v>
       </c>
       <c r="G3">
-        <v>-0.1950495049504951</v>
+        <v>0.4602649006622517</v>
       </c>
       <c r="H3">
-        <v>-0.1950495049504951</v>
+        <v>0.4602649006622517</v>
       </c>
       <c r="I3">
-        <v>0.458749945203249</v>
+        <v>0.5231788079470199</v>
       </c>
       <c r="J3">
-        <v>0.2587014531169007</v>
+        <v>0.3300547788406508</v>
       </c>
       <c r="K3">
-        <v>2.46</v>
+        <v>5.11</v>
       </c>
       <c r="L3">
-        <v>0.2435643564356436</v>
+        <v>0.3384105960264901</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,73 +770,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>24.8</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>1.142857142857143</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="W3">
-        <v>0.3987034035656402</v>
+        <v>0.8588235294117648</v>
       </c>
       <c r="X3">
-        <v>0.03115656299636566</v>
+        <v>0.02244461426977675</v>
       </c>
       <c r="Y3">
-        <v>0.3675468405692746</v>
+        <v>0.836378915141988</v>
       </c>
       <c r="Z3">
-        <v>1.596048684777361</v>
+        <v>15.89473684210527</v>
       </c>
       <c r="AA3">
-        <v>0.4129001139972215</v>
+        <v>5.246133853151401</v>
       </c>
       <c r="AB3">
-        <v>0.05006221866741443</v>
+        <v>0.02553701502740992</v>
       </c>
       <c r="AC3">
-        <v>0.3628378953298071</v>
+        <v>5.220596838123991</v>
       </c>
       <c r="AD3">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="AE3">
-        <v>0.1581277672359266</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>16.65812776723592</v>
+        <v>17.1</v>
       </c>
       <c r="AG3">
-        <v>-8.141872232764076</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.4342789582515723</v>
+        <v>0.4985422740524782</v>
       </c>
       <c r="AI3">
-        <v>0.6728347120528528</v>
+        <v>0.608540925266904</v>
       </c>
       <c r="AJ3">
-        <v>-0.6005159689112406</v>
+        <v>0.3460076045627377</v>
       </c>
       <c r="AK3">
-        <v>194.4456193353346</v>
+        <v>0.4527363184079602</v>
       </c>
       <c r="AL3">
-        <v>0.111</v>
+        <v>0.134</v>
       </c>
       <c r="AM3">
-        <v>0.111</v>
+        <v>0.106</v>
       </c>
       <c r="AN3">
-        <v>3.419689119170984</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="AO3">
-        <v>40.45045045045045</v>
+        <v>58.95522388059701</v>
       </c>
       <c r="AP3">
-        <v>-1.687434659640223</v>
+        <v>1.140350877192983</v>
       </c>
       <c r="AQ3">
-        <v>40.45045045045045</v>
+        <v>74.52830188679245</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypoport AG (XTRA:HYQ)</t>
+          <t>Ökoworld AG (XTRA:VVV3)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -856,121 +856,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.25</v>
+        <v>0.111</v>
       </c>
       <c r="E4">
-        <v>0.412</v>
-      </c>
-      <c r="F4">
-        <v>0.281</v>
+        <v>0.32</v>
       </c>
       <c r="G4">
-        <v>0.147008547008547</v>
+        <v>0.3596837944664031</v>
       </c>
       <c r="H4">
-        <v>0.103988603988604</v>
+        <v>0.3596837944664031</v>
       </c>
       <c r="I4">
-        <v>0.1058134272273971</v>
+        <v>0.4703557312252964</v>
       </c>
       <c r="J4">
-        <v>0.0851925575237447</v>
+        <v>0.4040988902401946</v>
       </c>
       <c r="K4">
-        <v>26.7</v>
+        <v>17.9</v>
       </c>
       <c r="L4">
-        <v>0.07606837606837606</v>
+        <v>0.7075098814229248</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>4.927879999999999</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.01493749621097302</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.2753005586592179</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>4.927879999999999</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.01493749621097302</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.2753005586592179</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>21.7</v>
+        <v>27.6</v>
       </c>
       <c r="V4">
-        <v>0.009822560202788341</v>
+        <v>0.08366171567141559</v>
       </c>
       <c r="W4">
-        <v>0.1559579439252337</v>
+        <v>0.8647342995169082</v>
       </c>
       <c r="X4">
-        <v>0.02734771817643921</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="Y4">
-        <v>0.1286102257487944</v>
+        <v>0.8476836184939339</v>
       </c>
       <c r="Z4">
-        <v>3.900111143810878</v>
+        <v>3.373333333333334</v>
       </c>
       <c r="AA4">
-        <v>0.332260442968106</v>
+        <v>1.363160256410257</v>
       </c>
       <c r="AB4">
-        <v>0.02713065021348523</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="AC4">
-        <v>0.3051297927546208</v>
+        <v>1.346109575387282</v>
       </c>
       <c r="AD4">
-        <v>133.9</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>16.39743521591815</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>150.2974352159181</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>128.5974352159182</v>
+        <v>-27.6</v>
       </c>
       <c r="AH4">
-        <v>0.06369891866492511</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.442705657320592</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.05500794606015168</v>
+        <v>-0.09130003307972215</v>
       </c>
       <c r="AK4">
-        <v>0.4046522122764974</v>
+        <v>-9.857142857142868</v>
       </c>
       <c r="AL4">
-        <v>2.21</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AM4">
-        <v>1.568</v>
+        <v>-0.5750000000000001</v>
       </c>
       <c r="AN4">
-        <v>2.884532529082292</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>16.10859728506787</v>
+        <v>167.6056338028169</v>
       </c>
       <c r="AP4">
-        <v>2.770302352777211</v>
+        <v>-2.28099173553719</v>
       </c>
       <c r="AQ4">
-        <v>22.70408163265306</v>
+        <v>-20.69565217391304</v>
       </c>
     </row>
     <row r="5">
@@ -990,49 +990,49 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0599</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="E5">
-        <v>0.0702</v>
+        <v>0.0621</v>
       </c>
       <c r="F5">
-        <v>0.09369999999999999</v>
+        <v>0.0757</v>
       </c>
       <c r="G5">
-        <v>0.605091482841278</v>
+        <v>0.4784131522516083</v>
       </c>
       <c r="H5">
-        <v>0.551658221318688</v>
+        <v>0.4441744102930665</v>
       </c>
       <c r="I5">
-        <v>0.5392754123342117</v>
+        <v>0.4696688110555158</v>
       </c>
       <c r="J5">
-        <v>0.4060731851187534</v>
+        <v>0.3462107232431375</v>
       </c>
       <c r="K5">
-        <v>1014.8</v>
+        <v>1249.6</v>
       </c>
       <c r="L5">
-        <v>0.3079163758837273</v>
+        <v>0.2977364784369788</v>
       </c>
       <c r="M5">
-        <v>538.902</v>
+        <v>625.394</v>
       </c>
       <c r="N5">
-        <v>0.01870148528595225</v>
+        <v>0.02001606677633895</v>
       </c>
       <c r="O5">
-        <v>0.5310425699645251</v>
+        <v>0.5004753521126761</v>
       </c>
       <c r="P5">
-        <v>538.902</v>
+        <v>625.394</v>
       </c>
       <c r="Q5">
-        <v>0.01870148528595225</v>
+        <v>0.02001606677633895</v>
       </c>
       <c r="R5">
-        <v>0.5310425699645251</v>
+        <v>0.5004753521126761</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1041,73 +1041,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>997.7</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03462312604108828</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.1814216247139588</v>
+        <v>0.2080205090642739</v>
       </c>
       <c r="X5">
-        <v>0.0275335710076809</v>
+        <v>0.01782178753267854</v>
       </c>
       <c r="Y5">
-        <v>0.1538880537062779</v>
+        <v>0.1901987215315954</v>
       </c>
       <c r="Z5">
-        <v>0.7750484822529244</v>
+        <v>1.139498262380539</v>
       </c>
       <c r="AA5">
-        <v>0.3147264058099006</v>
+        <v>0.3945065175530647</v>
       </c>
       <c r="AB5">
-        <v>0.02673324326976351</v>
+        <v>0.01715866174801799</v>
       </c>
       <c r="AC5">
-        <v>0.2879931625401371</v>
+        <v>0.3773478558050467</v>
       </c>
       <c r="AD5">
-        <v>2492.1</v>
+        <v>4440.7</v>
       </c>
       <c r="AE5">
-        <v>452.0501178506929</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2944.150117850693</v>
+        <v>4440.7</v>
       </c>
       <c r="AG5">
-        <v>1946.450117850693</v>
+        <v>4440.7</v>
       </c>
       <c r="AH5">
-        <v>0.09269950258188303</v>
+        <v>0.1244405959877036</v>
       </c>
       <c r="AI5">
-        <v>0.3148604728809407</v>
+        <v>0.3718712054599506</v>
       </c>
       <c r="AJ5">
-        <v>0.06327357250134037</v>
+        <v>0.1244405959877036</v>
       </c>
       <c r="AK5">
-        <v>0.2330254688928438</v>
+        <v>0.3718712054599506</v>
       </c>
       <c r="AL5">
-        <v>82.2</v>
+        <v>19.6</v>
       </c>
       <c r="AM5">
-        <v>72.2</v>
+        <v>-10.3</v>
       </c>
       <c r="AN5">
-        <v>1.274079754601227</v>
+        <v>2.143919277748274</v>
       </c>
       <c r="AO5">
-        <v>21.63868613138686</v>
+        <v>100.5714285714286</v>
       </c>
       <c r="AP5">
-        <v>0.9951176471629308</v>
+        <v>2.143919277748274</v>
       </c>
       <c r="AQ5">
-        <v>24.63573407202216</v>
+        <v>-191.3786407766991</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Albis Leasing AG (XTRA:ALG)</t>
+          <t>Hypoport SE (XTRA:HYQ)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1127,121 +1127,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.213</v>
+        <v>0.228</v>
       </c>
       <c r="E6">
-        <v>0.0248</v>
+        <v>0.123</v>
+      </c>
+      <c r="F6">
+        <v>0.333</v>
       </c>
       <c r="G6">
-        <v>0.2817073170731707</v>
+        <v>0.1541960427564249</v>
       </c>
       <c r="H6">
-        <v>0.2817073170731707</v>
+        <v>0.09597452808733228</v>
       </c>
       <c r="I6">
-        <v>0.2536585365853659</v>
+        <v>0.08596770525358198</v>
       </c>
       <c r="J6">
-        <v>0.2536585365853659</v>
+        <v>0.06688287468728678</v>
       </c>
       <c r="K6">
-        <v>2.59</v>
+        <v>27.2</v>
       </c>
       <c r="L6">
-        <v>0.1052845528455284</v>
+        <v>0.06186035933591085</v>
       </c>
       <c r="M6">
-        <v>1.27</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.01796322489391796</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.4903474903474904</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>1.27</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.01796322489391796</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.4903474903474904</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>8.76</v>
+        <v>33.9</v>
       </c>
       <c r="V6">
-        <v>0.1239038189533239</v>
+        <v>0.008542700904669505</v>
       </c>
       <c r="W6">
-        <v>0.1088235294117647</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="X6">
-        <v>0.04265522472030505</v>
+        <v>0.01733888768369805</v>
       </c>
       <c r="Y6">
-        <v>0.06616830469145965</v>
+        <v>0.1267289089264714</v>
       </c>
       <c r="Z6">
-        <v>0.1617357001972387</v>
+        <v>4.17568850902184</v>
       </c>
       <c r="AA6">
-        <v>0.04102564102564103</v>
+        <v>0.2792820512820511</v>
       </c>
       <c r="AB6">
-        <v>0.02876379288270349</v>
+        <v>0.01737526165806489</v>
       </c>
       <c r="AC6">
-        <v>0.01226184814293754</v>
+        <v>0.2619067896239862</v>
       </c>
       <c r="AD6">
-        <v>203.6</v>
+        <v>210.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>203.6</v>
+        <v>210.8</v>
       </c>
       <c r="AG6">
-        <v>194.84</v>
+        <v>176.9</v>
       </c>
       <c r="AH6">
-        <v>0.7422530076558512</v>
+        <v>0.05044148261587423</v>
       </c>
       <c r="AI6">
-        <v>0.8957325120985482</v>
+        <v>0.4565735325969244</v>
       </c>
       <c r="AJ6">
-        <v>0.7337500941477743</v>
+        <v>0.04267586606195117</v>
       </c>
       <c r="AK6">
-        <v>0.8915530337695616</v>
+        <v>0.4135109864422628</v>
       </c>
       <c r="AL6">
-        <v>7.15</v>
+        <v>2.67</v>
       </c>
       <c r="AM6">
-        <v>6.704000000000001</v>
+        <v>2.335</v>
       </c>
       <c r="AN6">
-        <v>32.11356466876972</v>
+        <v>4.663716814159292</v>
       </c>
       <c r="AO6">
-        <v>0.8727272727272727</v>
+        <v>14.15730337078652</v>
       </c>
       <c r="AP6">
-        <v>30.73186119873817</v>
+        <v>3.913716814159292</v>
       </c>
       <c r="AQ6">
-        <v>0.9307875894988066</v>
+        <v>16.18843683083512</v>
       </c>
     </row>
     <row r="7">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grenke AG (XTRA:GLJ)</t>
+          <t>ALBIS Leasing AG (XTRA:ALG)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1261,121 +1261,118 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.16</v>
-      </c>
-      <c r="E7">
-        <v>0.177</v>
-      </c>
-      <c r="F7">
-        <v>0.145</v>
+        <v>0.0713</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.2432727272727273</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2432727272727273</v>
       </c>
       <c r="I7">
-        <v>0.0165057677502419</v>
+        <v>0.2505454545454545</v>
       </c>
       <c r="J7">
-        <v>0.01384805938367752</v>
+        <v>0.1807213114754098</v>
       </c>
       <c r="K7">
-        <v>148.5</v>
+        <v>2.64</v>
       </c>
       <c r="L7">
-        <v>0.275356944186909</v>
+        <v>0.096</v>
       </c>
       <c r="M7">
-        <v>50.874</v>
+        <v>0.835</v>
       </c>
       <c r="N7">
-        <v>0.0106062627694617</v>
+        <v>0.01088657105606258</v>
       </c>
       <c r="O7">
-        <v>0.3425858585858586</v>
+        <v>0.3162878787878788</v>
       </c>
       <c r="P7">
-        <v>50.7</v>
+        <v>0.835</v>
       </c>
       <c r="Q7">
-        <v>0.01056998707417754</v>
+        <v>0.01088657105606258</v>
       </c>
       <c r="R7">
-        <v>0.3414141414141414</v>
+        <v>0.3162878787878788</v>
       </c>
       <c r="S7">
-        <v>0.1739999999999995</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.003420214647953758</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>448.3</v>
+        <v>6.74</v>
       </c>
       <c r="V7">
-        <v>0.09346203560855605</v>
+        <v>0.0878748370273794</v>
       </c>
       <c r="W7">
-        <v>0.120888961250407</v>
+        <v>0.111864406779661</v>
       </c>
       <c r="X7">
-        <v>0.03277876656154089</v>
+        <v>0.03255608514507566</v>
       </c>
       <c r="Y7">
-        <v>0.08811019468886613</v>
+        <v>0.07930832163458536</v>
       </c>
       <c r="Z7">
-        <v>0.105714167374303</v>
+        <v>0.135441292356186</v>
       </c>
       <c r="AA7">
-        <v>0.001463936067495372</v>
+        <v>0.02447712798253433</v>
       </c>
       <c r="AB7">
-        <v>0.02782174061217225</v>
+        <v>0.01839506499029166</v>
       </c>
       <c r="AC7">
-        <v>-0.02635780454467688</v>
+        <v>0.006082062992242666</v>
       </c>
       <c r="AD7">
-        <v>5059.4</v>
+        <v>219.2</v>
       </c>
       <c r="AE7">
-        <v>51.99219726147273</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>5111.392197261473</v>
+        <v>219.2</v>
       </c>
       <c r="AG7">
-        <v>4663.092197261472</v>
+        <v>212.46</v>
       </c>
       <c r="AH7">
-        <v>0.5158857713547897</v>
+        <v>0.7407908077053059</v>
       </c>
       <c r="AI7">
-        <v>0.8034010980463006</v>
+        <v>0.9171548117154811</v>
       </c>
       <c r="AJ7">
-        <v>0.4929433326183077</v>
+        <v>0.7347489279291741</v>
       </c>
       <c r="AK7">
-        <v>0.7884980046509464</v>
+        <v>0.9147507104107465</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AM7">
-        <v>-1.97</v>
+        <v>5.958</v>
       </c>
       <c r="AN7">
-        <v>262.1450777202072</v>
+        <v>30.74333800841515</v>
+      </c>
+      <c r="AO7">
+        <v>1.06</v>
       </c>
       <c r="AP7">
-        <v>241.6109946767602</v>
+        <v>29.79803646563814</v>
       </c>
       <c r="AQ7">
-        <v>-0</v>
+        <v>1.156428331654918</v>
       </c>
     </row>
     <row r="8">
@@ -1386,7 +1383,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Deutsche Pfandbriefbank AG (XTRA:PBB)</t>
+          <t>FORIS AG (XTRA:FRS)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1395,49 +1392,46 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.015</v>
+        <v>0.00766</v>
       </c>
       <c r="E8">
-        <v>0.0319</v>
-      </c>
-      <c r="F8">
-        <v>-0.119</v>
+        <v>-0.276</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.05478260869565217</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.05478260869565217</v>
       </c>
       <c r="I8">
-        <v>0.002463708758004197</v>
+        <v>0.009652173913043478</v>
       </c>
       <c r="J8">
-        <v>0.002090093535472397</v>
+        <v>0.009588880969351388</v>
       </c>
       <c r="K8">
-        <v>213.7</v>
+        <v>0.303</v>
       </c>
       <c r="L8">
-        <v>0.4187732706251224</v>
+        <v>0.01317391304347826</v>
       </c>
       <c r="M8">
-        <v>146.605</v>
+        <v>0.521</v>
       </c>
       <c r="N8">
-        <v>0.06675089923963029</v>
+        <v>0.03236024844720497</v>
       </c>
       <c r="O8">
-        <v>0.6860318203088442</v>
+        <v>1.71947194719472</v>
       </c>
       <c r="P8">
-        <v>146.605</v>
+        <v>0.521</v>
       </c>
       <c r="Q8">
-        <v>0.06675089923963029</v>
+        <v>0.03236024844720497</v>
       </c>
       <c r="R8">
-        <v>0.6860318203088442</v>
+        <v>1.71947194719472</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1446,67 +1440,70 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1993.2</v>
+        <v>5.22</v>
       </c>
       <c r="V8">
-        <v>0.9075262942221007</v>
+        <v>0.324223602484472</v>
       </c>
       <c r="W8">
-        <v>0.05706884580462532</v>
+        <v>0.01561855670103093</v>
       </c>
       <c r="X8">
-        <v>0.1109444564835061</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="Y8">
-        <v>-0.05387561067888075</v>
+        <v>-0.001432124321943362</v>
       </c>
       <c r="Z8">
-        <v>0.0142695301485769</v>
+        <v>1.929530201342282</v>
       </c>
       <c r="AA8">
-        <v>2.982465271776905e-05</v>
+        <v>0.01850203542743976</v>
       </c>
       <c r="AB8">
-        <v>0.02737589678567385</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="AC8">
-        <v>-0.02734607213295608</v>
+        <v>0.001451354404465473</v>
       </c>
       <c r="AD8">
-        <v>33834.9</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>39.51384710395229</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>33874.41384710396</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>31881.21384710395</v>
+        <v>-5.22</v>
       </c>
       <c r="AH8">
-        <v>0.9391112687896987</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.9062706017443702</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.9355498757962752</v>
+        <v>-0.4797794117647057</v>
       </c>
       <c r="AK8">
-        <v>0.900990865263131</v>
+        <v>-0.378809869375907</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AN8">
-        <v>3693.766375545852</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>3480.48186103755</v>
+        <v>-12.4582338902148</v>
+      </c>
+      <c r="AQ8">
+        <v>-74</v>
       </c>
     </row>
     <row r="9">
@@ -1517,7 +1514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aareal Bank AG (XTRA:ARL)</t>
+          <t>Fast Finance24 Holding AG (XTRA:FF24)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1525,15 +1522,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D9">
-        <v>0.0162</v>
-      </c>
-      <c r="E9">
-        <v>-0.07139999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.0223</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1541,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.005177756475922107</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="J9">
-        <v>0.003690561894914213</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="K9">
-        <v>233.3</v>
+        <v>0.082</v>
       </c>
       <c r="L9">
-        <v>0.3009157745388882</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1574,67 +1562,67 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1116.6</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.549778434268833</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.07043231493780945</v>
+        <v>0.001859410430839002</v>
       </c>
       <c r="X9">
-        <v>0.1144323572682503</v>
+        <v>0.01791599076551088</v>
       </c>
       <c r="Y9">
-        <v>-0.04400004233044087</v>
+        <v>-0.01605658033467188</v>
       </c>
       <c r="Z9">
-        <v>0.02246677972037136</v>
+        <v>0.004074414023148044</v>
       </c>
       <c r="AA9">
-        <v>8.291504113743394e-05</v>
+        <v>0.002350623474893102</v>
       </c>
       <c r="AB9">
-        <v>0.02924309307070348</v>
+        <v>0.01793579951191141</v>
       </c>
       <c r="AC9">
-        <v>-0.02916017802956605</v>
+        <v>-0.01558517603701831</v>
       </c>
       <c r="AD9">
-        <v>32560.2</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AE9">
-        <v>65.92842702108796</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>32626.12842702109</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AG9">
-        <v>31509.52842702109</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.9413973375123459</v>
+        <v>0.1375519179086245</v>
       </c>
       <c r="AI9">
-        <v>0.9139553093334931</v>
+        <v>0.01271942706097643</v>
       </c>
       <c r="AJ9">
-        <v>0.939446392312538</v>
+        <v>0.1375519179086245</v>
       </c>
       <c r="AK9">
-        <v>0.9111769875733753</v>
+        <v>0.01271942706097643</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>1893.03488372093</v>
-      </c>
-      <c r="AP9">
-        <v>1831.949327152389</v>
+        <v>0.023</v>
+      </c>
+      <c r="AO9">
+        <v>4.565217391304348</v>
+      </c>
+      <c r="AQ9">
+        <v>4.565217391304348</v>
       </c>
     </row>
     <row r="10">
@@ -1645,7 +1633,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deutsche Bank Aktiengesellschaft (XTRA:DBK)</t>
+          <t>Grenke AG (XTRA:GLJ)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1654,7 +1642,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.0491</v>
+        <v>0.145</v>
+      </c>
+      <c r="E10">
+        <v>0.0423</v>
+      </c>
+      <c r="F10">
+        <v>0.122</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1663,34 +1657,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.01605470561257959</v>
+        <v>0.003081215981374398</v>
       </c>
       <c r="J10">
-        <v>-0.01605470561257959</v>
+        <v>0.002486160371218698</v>
       </c>
       <c r="K10">
-        <v>-4684.3</v>
+        <v>110.3</v>
       </c>
       <c r="L10">
-        <v>-0.1892417080757888</v>
+        <v>0.1747742037711932</v>
       </c>
       <c r="M10">
-        <v>247.872</v>
+        <v>45.7</v>
       </c>
       <c r="N10">
-        <v>0.01546628729736812</v>
+        <v>0.02069840119570633</v>
       </c>
       <c r="O10">
-        <v>-0.0529154836368294</v>
+        <v>0.414324569356301</v>
       </c>
       <c r="P10">
-        <v>247.872</v>
+        <v>45.7</v>
       </c>
       <c r="Q10">
-        <v>0.01546628729736812</v>
+        <v>0.02069840119570633</v>
       </c>
       <c r="R10">
-        <v>-0.0529154836368294</v>
+        <v>0.414324569356301</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1699,67 +1693,70 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>183014.9</v>
+        <v>935.6</v>
       </c>
       <c r="V10">
-        <v>11.41944642032621</v>
+        <v>0.4237510756827755</v>
       </c>
       <c r="W10">
-        <v>-0.05995029205338358</v>
+        <v>0.08818356251998721</v>
       </c>
       <c r="X10">
-        <v>0.2457916280792451</v>
+        <v>0.03034929684050337</v>
       </c>
       <c r="Y10">
-        <v>-0.3057419201326286</v>
+        <v>0.05783426567948384</v>
       </c>
       <c r="Z10">
-        <v>0.05031685504834726</v>
+        <v>0.1097455047606458</v>
       </c>
       <c r="AA10">
-        <v>-0.0008078222951520546</v>
+        <v>0.0002728449248553105</v>
       </c>
       <c r="AB10">
-        <v>0.0285744026415167</v>
+        <v>0.02087518301419117</v>
       </c>
       <c r="AC10">
-        <v>-0.02938222493666876</v>
+        <v>-0.02060233808933586</v>
       </c>
       <c r="AD10">
-        <v>638116.9</v>
+        <v>5406.5</v>
       </c>
       <c r="AE10">
-        <v>6034.510640140913</v>
+        <v>5.377222970773088</v>
       </c>
       <c r="AF10">
-        <v>644151.4106401409</v>
+        <v>5411.877222970773</v>
       </c>
       <c r="AG10">
-        <v>461136.5106401409</v>
+        <v>4476.277222970773</v>
       </c>
       <c r="AH10">
-        <v>0.975723820330732</v>
+        <v>0.710240872483252</v>
       </c>
       <c r="AI10">
-        <v>0.901398057508747</v>
+        <v>0.7852886281143432</v>
       </c>
       <c r="AJ10">
-        <v>0.9664127430586589</v>
+        <v>0.6696826061983583</v>
       </c>
       <c r="AK10">
-        <v>0.8674521112732537</v>
+        <v>0.7515605005517562</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>-2.19</v>
       </c>
       <c r="AN10">
-        <v>788.2852378011119</v>
+        <v>1790.23178807947</v>
       </c>
       <c r="AP10">
-        <v>569.6559736135156</v>
+        <v>1482.211000983699</v>
+      </c>
+      <c r="AQ10">
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -1770,7 +1767,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FORIS AG (XTRA:FRS)</t>
+          <t>Deutsche Pfandbriefbank AG (XTRA:PBB)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1779,34 +1776,40 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.0366</v>
+        <v>0.05019999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.208</v>
+      </c>
+      <c r="F11">
+        <v>-0.0915</v>
       </c>
       <c r="G11">
-        <v>-0.06267942583732058</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.06267942583732058</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.08181818181818182</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.08181818181818182</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-3.04</v>
+        <v>111.6</v>
       </c>
       <c r="L11">
-        <v>-0.1454545454545455</v>
+        <v>0.248773963441819</v>
       </c>
       <c r="M11">
-        <v>0.07199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.004585987261146496</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>-0.02368421052631579</v>
+        <v>-0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1815,79 +1818,67 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S11">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>5.8</v>
+        <v>6588.8</v>
       </c>
       <c r="V11">
-        <v>0.3694267515923567</v>
+        <v>4.554365106794775</v>
       </c>
       <c r="W11">
-        <v>-0.1316017316017316</v>
+        <v>0.03185476965233772</v>
       </c>
       <c r="X11">
-        <v>0.02697733977922131</v>
+        <v>0.165395672748288</v>
       </c>
       <c r="Y11">
-        <v>-0.1585790713809529</v>
+        <v>-0.1335409030959503</v>
       </c>
       <c r="Z11">
-        <v>1.344051446945338</v>
+        <v>0.01269199973970932</v>
       </c>
       <c r="AA11">
-        <v>-0.109967845659164</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02697733977922131</v>
+        <v>0.02112002324341322</v>
       </c>
       <c r="AC11">
-        <v>-0.1369451854383853</v>
+        <v>-0.02112002324341322</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>39556.1</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>39556.1</v>
       </c>
       <c r="AG11">
-        <v>-5.8</v>
+        <v>32967.3</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.9647170437140878</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.9114413760527195</v>
       </c>
       <c r="AJ11">
-        <v>-0.585858585858586</v>
+        <v>0.9579618759807056</v>
       </c>
       <c r="AK11">
-        <v>-0.4264705882352942</v>
+        <v>0.8955901409101158</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-0.023</v>
-      </c>
-      <c r="AN11">
-        <v>-0</v>
-      </c>
-      <c r="AP11">
-        <v>3.918918918918919</v>
-      </c>
-      <c r="AQ11">
-        <v>74.34782608695652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1898,7 +1889,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Phicomm AG (DB:HBD1)</t>
+          <t>Deutsche Bank Aktiengesellschaft (XTRA:DBK)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1906,8 +1897,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D12">
+        <v>-0.08810000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
       <c r="K12">
-        <v>-0.512</v>
+        <v>-1419.7</v>
+      </c>
+      <c r="L12">
+        <v>-0.0561968095633931</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1931,64 +1940,61 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0.058</v>
+        <v>208067.2</v>
       </c>
       <c r="V12">
-        <v>0.0537037037037037</v>
+        <v>9.206635486311765</v>
       </c>
       <c r="W12">
-        <v>-0.6236297198538369</v>
+        <v>-0.02065955750100409</v>
       </c>
       <c r="X12">
-        <v>0.02697733977922131</v>
+        <v>0.1715752064404691</v>
       </c>
       <c r="Y12">
-        <v>-0.6506070596330582</v>
+        <v>-0.1922347639414732</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.0428324157784291</v>
       </c>
       <c r="AA12">
-        <v>-0.7814871016691959</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.02697733977922131</v>
+        <v>0.02225282536713474</v>
       </c>
       <c r="AC12">
-        <v>-0.8084644414484172</v>
+        <v>-0.02225282536713474</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>643668.4</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>643668.4</v>
       </c>
       <c r="AG12">
-        <v>-0.058</v>
+        <v>435601.2</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.9660801710302505</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.8981056950817056</v>
       </c>
       <c r="AJ12">
-        <v>-0.05675146771037182</v>
+        <v>0.9506773120698803</v>
       </c>
       <c r="AK12">
-        <v>-0.2510822510822511</v>
+        <v>0.8564232748308982</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-0.003</v>
-      </c>
-      <c r="AQ12">
-        <v>171.6666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1999,7 +2005,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fast Finance24 Holding AG (XTRA:CSY)</t>
+          <t>Aareal Bank AG (XTRA:ARL)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2007,23 +2013,32 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D13">
+        <v>-0.0728</v>
+      </c>
+      <c r="E13">
+        <v>-0.297</v>
+      </c>
+      <c r="F13">
+        <v>-0.0575</v>
+      </c>
       <c r="G13">
-        <v>3.353115727002967</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3.353115727002967</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4.718100890207715</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.718100890207715</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>-1.66</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="L13">
-        <v>4.925816023738872</v>
+        <v>0.1002998500749625</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2032,7 +2047,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -2041,73 +2056,67 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>5191.4</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3.626798938102556</v>
       </c>
       <c r="W13">
-        <v>-1.580952380952381</v>
+        <v>0.02179508063202476</v>
       </c>
       <c r="X13">
-        <v>0.02766572076456883</v>
+        <v>0.1533929791240344</v>
       </c>
       <c r="Y13">
-        <v>-1.60861810171695</v>
+        <v>-0.1315978984920096</v>
       </c>
       <c r="Z13">
-        <v>-0.1705465587044535</v>
+        <v>0.01932599505694939</v>
       </c>
       <c r="AA13">
-        <v>-0.8046558704453441</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.02754609261009267</v>
+        <v>0.02323921599674201</v>
       </c>
       <c r="AC13">
-        <v>-0.8322019630554368</v>
+        <v>-0.02323921599674201</v>
       </c>
       <c r="AD13">
-        <v>0.569</v>
+        <v>35971.1</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.569</v>
+        <v>35971.1</v>
       </c>
       <c r="AG13">
-        <v>0.569</v>
+        <v>30779.7</v>
       </c>
       <c r="AH13">
-        <v>0.1122509370684553</v>
+        <v>0.9617298308936568</v>
       </c>
       <c r="AI13">
-        <v>0.01273814054489691</v>
+        <v>0.915073964308882</v>
       </c>
       <c r="AJ13">
-        <v>0.1122509370684553</v>
+        <v>0.9555619025739573</v>
       </c>
       <c r="AK13">
-        <v>0.01273814054489691</v>
+        <v>0.9021516438488661</v>
       </c>
       <c r="AL13">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>0.066</v>
-      </c>
-      <c r="AO13">
-        <v>-24.09090909090909</v>
-      </c>
-      <c r="AQ13">
-        <v>-24.09090909090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2118,7 +2127,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>creditshelf Aktiengesellschaft (XTRA:CSQ)</t>
+          <t>Philomaxcap AG (DB:HBD1)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2126,23 +2135,8 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="G14">
-        <v>-1.655526992287918</v>
-      </c>
-      <c r="H14">
-        <v>-1.655526992287918</v>
-      </c>
-      <c r="I14">
-        <v>-1.493573264781491</v>
-      </c>
-      <c r="J14">
-        <v>-1.493573264781491</v>
-      </c>
       <c r="K14">
-        <v>-9.050000000000001</v>
-      </c>
-      <c r="L14">
-        <v>-2.326478149100257</v>
+        <v>-0.126</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2166,73 +2160,61 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>6.39</v>
+        <v>0.171</v>
       </c>
       <c r="V14">
-        <v>0.08223938223938224</v>
+        <v>0.0497093023255814</v>
       </c>
       <c r="W14">
-        <v>-0.4972527472527473</v>
+        <v>-0.4359861591695502</v>
       </c>
       <c r="X14">
-        <v>0.02699934054220036</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="Y14">
-        <v>-0.5242520877949477</v>
+        <v>-0.4530368401925245</v>
       </c>
       <c r="Z14">
-        <v>1.052489177489178</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-1.571969696969697</v>
+        <v>-0.5454545454545455</v>
       </c>
       <c r="AB14">
-        <v>0.02698702694553501</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="AC14">
-        <v>-1.598956723915232</v>
+        <v>-0.5625052264775198</v>
       </c>
       <c r="AD14">
-        <v>0.314</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.314</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>-6.076</v>
+        <v>-0.171</v>
       </c>
       <c r="AH14">
-        <v>0.004024918604353065</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.0362837993991218</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>-0.08483189992181391</v>
+        <v>-0.05230957479351484</v>
       </c>
       <c r="AK14">
-        <v>-2.683745583038869</v>
+        <v>15.54545454545453</v>
       </c>
       <c r="AL14">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0.08600000000000001</v>
-      </c>
-      <c r="AN14">
-        <v>-0.05913370998116761</v>
-      </c>
-      <c r="AO14">
-        <v>-49.65811965811965</v>
-      </c>
-      <c r="AP14">
-        <v>1.144256120527307</v>
-      </c>
-      <c r="AQ14">
-        <v>-67.55813953488371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2243,7 +2225,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>General Technologies AG (DB:W8Z)</t>
+          <t>creditshelf Aktiengesellschaft (XTRA:CSQ)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2252,22 +2234,22 @@
         </is>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>-0.9416666666666667</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-0.9416666666666667</v>
       </c>
       <c r="I15">
-        <v>0.4064516129032258</v>
+        <v>-1.027777777777778</v>
       </c>
       <c r="J15">
-        <v>0.4064516129032258</v>
+        <v>-1.027777777777778</v>
       </c>
       <c r="K15">
-        <v>0.065</v>
+        <v>-5.98</v>
       </c>
       <c r="L15">
-        <v>0.4193548387096774</v>
+        <v>-0.8305555555555556</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -2276,7 +2258,7 @@
         <v>-0</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>-0</v>
@@ -2285,58 +2267,79 @@
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0.008999999999999999</v>
+        <v>3.92</v>
       </c>
       <c r="V15">
-        <v>0.008411214953271027</v>
+        <v>0.05474860335195531</v>
+      </c>
+      <c r="W15">
+        <v>-0.7170263788968826</v>
       </c>
       <c r="X15">
-        <v>0.02697733977922131</v>
+        <v>0.01706477513846579</v>
+      </c>
+      <c r="Y15">
+        <v>-0.7340911540353484</v>
       </c>
       <c r="Z15">
-        <v>-155</v>
+        <v>3.180212014134276</v>
       </c>
       <c r="AA15">
-        <v>-63</v>
+        <v>-3.268551236749116</v>
       </c>
       <c r="AB15">
-        <v>0.02697733977922131</v>
+        <v>0.01705538322115942</v>
       </c>
       <c r="AC15">
-        <v>-63.02697733977922</v>
+        <v>-3.285606619970276</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="AG15">
-        <v>-0.008999999999999999</v>
+        <v>-3.734</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>0.002591034463544424</v>
+      </c>
+      <c r="AI15">
+        <v>0.03225806451612903</v>
       </c>
       <c r="AJ15">
-        <v>-0.008482563619227142</v>
+        <v>-0.05502018683877052</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>-2.022751895991333</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>-0.128</v>
+      </c>
+      <c r="AN15">
+        <v>-0.02676258992805755</v>
+      </c>
+      <c r="AO15">
+        <v>-7400</v>
+      </c>
+      <c r="AP15">
+        <v>0.5372661870503597</v>
+      </c>
+      <c r="AQ15">
+        <v>57.8125</v>
       </c>
     </row>
   </sheetData>
